--- a/Code/Results/Cases/Case_4_178/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_178/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.62663913712593</v>
+        <v>16.0711673480879</v>
       </c>
       <c r="C2">
-        <v>10.91101766051725</v>
+        <v>8.61511508945847</v>
       </c>
       <c r="D2">
-        <v>8.689338025958403</v>
+        <v>13.56159526462787</v>
       </c>
       <c r="E2">
-        <v>8.169124561160244</v>
+        <v>14.13141669706078</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>26.23860607654208</v>
+        <v>36.10223932728334</v>
       </c>
       <c r="H2">
-        <v>9.6773506891452</v>
+        <v>16.16056733970392</v>
       </c>
       <c r="I2">
-        <v>15.02075148090005</v>
+        <v>25.08492602862891</v>
       </c>
       <c r="J2">
-        <v>5.378148000715164</v>
+        <v>8.618319071558375</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.47576998317308</v>
+        <v>12.14483238649772</v>
       </c>
       <c r="M2">
-        <v>12.42144552581339</v>
+        <v>16.75017320725858</v>
       </c>
       <c r="N2">
-        <v>12.68499337954836</v>
+        <v>18.85690058318922</v>
       </c>
       <c r="O2">
-        <v>16.31277991775085</v>
+        <v>25.57501843936498</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.38281614383773</v>
+        <v>15.69554943976792</v>
       </c>
       <c r="C3">
-        <v>10.41979936437902</v>
+        <v>8.408031093794085</v>
       </c>
       <c r="D3">
-        <v>8.57178556166796</v>
+        <v>13.5774981841238</v>
       </c>
       <c r="E3">
-        <v>8.24312718199757</v>
+        <v>14.16852733367672</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>25.6844741178805</v>
+        <v>36.1458093438882</v>
       </c>
       <c r="H3">
-        <v>9.69061512639637</v>
+        <v>16.20508514765344</v>
       </c>
       <c r="I3">
-        <v>15.15798853369853</v>
+        <v>25.1826004031837</v>
       </c>
       <c r="J3">
-        <v>5.374412992857803</v>
+        <v>8.619227528606347</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.365194127621296</v>
+        <v>12.14922044457661</v>
       </c>
       <c r="M3">
-        <v>11.90695290434359</v>
+        <v>16.67288204849944</v>
       </c>
       <c r="N3">
-        <v>12.82553140114442</v>
+        <v>18.90594102950857</v>
       </c>
       <c r="O3">
-        <v>16.20817190089072</v>
+        <v>25.64019010945213</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.61213005039871</v>
+        <v>15.46227949579755</v>
       </c>
       <c r="C4">
-        <v>10.10552565438993</v>
+        <v>8.277174150467411</v>
       </c>
       <c r="D4">
-        <v>8.503772153571191</v>
+        <v>13.58953482735986</v>
       </c>
       <c r="E4">
-        <v>8.291342634153878</v>
+        <v>14.19274197816834</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>25.36504918371855</v>
+        <v>36.18270240426539</v>
       </c>
       <c r="H4">
-        <v>9.704880023200278</v>
+        <v>16.23494989178043</v>
       </c>
       <c r="I4">
-        <v>15.25336310447643</v>
+        <v>25.24702233676351</v>
       </c>
       <c r="J4">
-        <v>5.372350385228207</v>
+        <v>8.619895881063302</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.299273253250012</v>
+        <v>12.15335348796407</v>
       </c>
       <c r="M4">
-        <v>11.58292184403328</v>
+        <v>16.62731078251428</v>
       </c>
       <c r="N4">
-        <v>12.91507947499352</v>
+        <v>18.93778529807597</v>
       </c>
       <c r="O4">
-        <v>16.15678850451129</v>
+        <v>25.68538390738985</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.28802714145846</v>
+        <v>15.3666896081625</v>
       </c>
       <c r="C5">
-        <v>9.974374583943783</v>
+        <v>8.22296596002367</v>
       </c>
       <c r="D5">
-        <v>8.477113747212679</v>
+        <v>13.59501148646372</v>
       </c>
       <c r="E5">
-        <v>8.311681323406305</v>
+        <v>14.2029695594283</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>25.24016621812025</v>
+        <v>36.200281388143</v>
       </c>
       <c r="H5">
-        <v>9.712184115215321</v>
+        <v>16.24775623644609</v>
       </c>
       <c r="I5">
-        <v>15.29491360023781</v>
+        <v>25.27439324910999</v>
       </c>
       <c r="J5">
-        <v>5.371567095261575</v>
+        <v>8.620196143789517</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.272927215133087</v>
+        <v>12.15540047605049</v>
       </c>
       <c r="M5">
-        <v>11.44901649952582</v>
+        <v>16.6092272638776</v>
       </c>
       <c r="N5">
-        <v>12.95238777155897</v>
+        <v>18.951198880816</v>
       </c>
       <c r="O5">
-        <v>16.13899751137595</v>
+        <v>25.70510084451449</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.23360633435712</v>
+        <v>15.35078893978659</v>
       </c>
       <c r="C6">
-        <v>9.952414243947512</v>
+        <v>8.213912902161333</v>
       </c>
       <c r="D6">
-        <v>8.472751267202302</v>
+        <v>13.59595541193497</v>
       </c>
       <c r="E6">
-        <v>8.315100031226068</v>
+        <v>14.20468960006714</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>25.21974979456627</v>
+        <v>36.20335388419868</v>
       </c>
       <c r="H6">
-        <v>9.713485609568407</v>
+        <v>16.24992114220424</v>
       </c>
       <c r="I6">
-        <v>15.30197207807064</v>
+        <v>25.27900570857112</v>
       </c>
       <c r="J6">
-        <v>5.371440465983467</v>
+        <v>8.620247690534745</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.268584314497843</v>
+        <v>12.15576231177286</v>
       </c>
       <c r="M6">
-        <v>11.42667511597135</v>
+        <v>16.60625429877741</v>
       </c>
       <c r="N6">
-        <v>12.9586320607266</v>
+        <v>18.95345260484356</v>
       </c>
       <c r="O6">
-        <v>16.13623095112256</v>
+        <v>25.70845328830526</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.6077996258981</v>
+        <v>15.46099230506832</v>
       </c>
       <c r="C7">
-        <v>10.10376923583925</v>
+        <v>8.276446587563404</v>
       </c>
       <c r="D7">
-        <v>8.503408334958964</v>
+        <v>13.58960637272508</v>
       </c>
       <c r="E7">
-        <v>8.291614143043965</v>
+        <v>14.19287845268765</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>25.36334351619389</v>
+        <v>36.18292918483655</v>
       </c>
       <c r="H7">
-        <v>9.704972554855768</v>
+        <v>16.23512002678503</v>
       </c>
       <c r="I7">
-        <v>15.25391273965772</v>
+        <v>25.24738694241788</v>
       </c>
       <c r="J7">
-        <v>5.372339590730869</v>
+        <v>8.619899817393238</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.298915819825316</v>
+        <v>12.15337962443982</v>
       </c>
       <c r="M7">
-        <v>11.58112322047503</v>
+        <v>16.62706491276293</v>
       </c>
       <c r="N7">
-        <v>12.91557932330464</v>
+        <v>18.93796442855416</v>
       </c>
       <c r="O7">
-        <v>16.15653593518279</v>
+        <v>25.68564455561105</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.20352064784093</v>
+        <v>15.94228008341629</v>
       </c>
       <c r="C8">
-        <v>10.74433005255508</v>
+        <v>8.544510294960029</v>
       </c>
       <c r="D8">
-        <v>8.647948723676043</v>
+        <v>13.56660719585564</v>
       </c>
       <c r="E8">
-        <v>8.194059229752924</v>
+        <v>14.14391636339271</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>26.04325834617198</v>
+        <v>36.11515474553445</v>
       </c>
       <c r="H8">
-        <v>9.680625013044923</v>
+        <v>16.17539177627642</v>
       </c>
       <c r="I8">
-        <v>15.0656974915978</v>
+        <v>25.117680420891</v>
       </c>
       <c r="J8">
-        <v>5.376811805830007</v>
+        <v>8.61860942336447</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.437246795009579</v>
+        <v>12.14604736589889</v>
       </c>
       <c r="M8">
-        <v>12.24583955369381</v>
+        <v>16.72313973563197</v>
       </c>
       <c r="N8">
-        <v>12.73277326058187</v>
+        <v>18.87345056533739</v>
       </c>
       <c r="O8">
-        <v>16.27399730548134</v>
+        <v>25.59641376529624</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.07986853753284</v>
+        <v>16.85960512591909</v>
       </c>
       <c r="C9">
-        <v>11.89633784344771</v>
+        <v>9.038779619310173</v>
       </c>
       <c r="D9">
-        <v>8.96385905046999</v>
+        <v>13.53951894076091</v>
       </c>
       <c r="E9">
-        <v>8.025179421647165</v>
+        <v>14.05920547048267</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>27.53857833597612</v>
+        <v>36.06289292143094</v>
       </c>
       <c r="H9">
-        <v>9.683599973775859</v>
+        <v>16.07834966017473</v>
       </c>
       <c r="I9">
-        <v>14.7899307492214</v>
+        <v>24.89864890584472</v>
       </c>
       <c r="J9">
-        <v>5.387450604345377</v>
+        <v>8.616951756811378</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.723215388479929</v>
+        <v>12.14304100011405</v>
       </c>
       <c r="M9">
-        <v>13.47787977965999</v>
+        <v>16.92591466555052</v>
       </c>
       <c r="N9">
-        <v>12.40027376463473</v>
+        <v>18.760648595303</v>
       </c>
       <c r="O9">
-        <v>16.60961915692191</v>
+        <v>25.46260171937324</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.97352402751357</v>
+        <v>17.51048371539804</v>
       </c>
       <c r="C10">
-        <v>12.67540458751363</v>
+        <v>9.380337961984038</v>
       </c>
       <c r="D10">
-        <v>9.214860221883411</v>
+        <v>13.53057143878374</v>
       </c>
       <c r="E10">
-        <v>7.915357663401572</v>
+        <v>14.00381575625788</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>28.73089744737977</v>
+        <v>36.07382395965622</v>
       </c>
       <c r="H10">
-        <v>9.719666605666232</v>
+        <v>16.01930381855903</v>
       </c>
       <c r="I10">
-        <v>14.65171554678472</v>
+        <v>24.75928458459926</v>
       </c>
       <c r="J10">
-        <v>5.396464937245176</v>
+        <v>8.616260183216713</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.940993370720466</v>
+        <v>12.14770343296701</v>
       </c>
       <c r="M10">
-        <v>14.33169262316999</v>
+        <v>17.0828342683387</v>
       </c>
       <c r="N10">
-        <v>12.17207909088135</v>
+        <v>18.68607108290903</v>
       </c>
       <c r="O10">
-        <v>16.92449791026036</v>
+        <v>25.38949298055759</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.78815636007651</v>
+        <v>17.80025308898944</v>
       </c>
       <c r="C11">
-        <v>13.01465466595516</v>
+        <v>9.530584530576224</v>
       </c>
       <c r="D11">
-        <v>9.33293603602845</v>
+        <v>13.52887107297606</v>
       </c>
       <c r="E11">
-        <v>7.868636288961245</v>
+        <v>13.98009520722745</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>29.29244690880095</v>
+        <v>36.08951393350959</v>
       </c>
       <c r="H11">
-        <v>9.744065155851219</v>
+        <v>15.99510363960971</v>
       </c>
       <c r="I11">
-        <v>14.60455448009296</v>
+        <v>24.70057108443902</v>
       </c>
       <c r="J11">
-        <v>5.400840314736536</v>
+        <v>8.616058640964225</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.041464856134187</v>
+        <v>12.15130181565875</v>
       </c>
       <c r="M11">
-        <v>14.70770658599593</v>
+        <v>17.15576163848213</v>
       </c>
       <c r="N11">
-        <v>12.07184120105593</v>
+        <v>18.65393326485425</v>
       </c>
       <c r="O11">
-        <v>17.08331976399119</v>
+        <v>25.36172518599571</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.08997575211951</v>
+        <v>17.90897296383899</v>
       </c>
       <c r="C12">
-        <v>13.14090890482357</v>
+        <v>9.586707774367836</v>
       </c>
       <c r="D12">
-        <v>9.378189067746481</v>
+        <v>13.52856698138714</v>
       </c>
       <c r="E12">
-        <v>7.851423111928348</v>
+        <v>13.97132449112875</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>29.50774243067394</v>
+        <v>36.0969944002354</v>
       </c>
       <c r="H12">
-        <v>9.754505173733881</v>
+        <v>15.98632225460425</v>
       </c>
       <c r="I12">
-        <v>14.58910663164537</v>
+        <v>24.67901199504718</v>
       </c>
       <c r="J12">
-        <v>5.40253795214973</v>
+        <v>8.615998476394537</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.079690880388089</v>
+        <v>12.15287547078652</v>
       </c>
       <c r="M12">
-        <v>14.84823009533691</v>
+        <v>17.18358323980259</v>
       </c>
       <c r="N12">
-        <v>12.03440591830896</v>
+        <v>18.64201969741148</v>
       </c>
       <c r="O12">
-        <v>17.14575397068436</v>
+        <v>25.35200083297552</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.02526887274269</v>
+        <v>17.88560461457591</v>
       </c>
       <c r="C13">
-        <v>13.11381662994454</v>
+        <v>9.574655470899106</v>
       </c>
       <c r="D13">
-        <v>9.368419299705783</v>
+        <v>13.52861737762753</v>
       </c>
       <c r="E13">
-        <v>7.85510873430911</v>
+        <v>13.97320401366749</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>29.46125850159351</v>
+        <v>36.09531495004065</v>
       </c>
       <c r="H13">
-        <v>9.752202502815626</v>
+        <v>15.98819645979053</v>
       </c>
       <c r="I13">
-        <v>14.59232389875343</v>
+        <v>24.68362512059351</v>
       </c>
       <c r="J13">
-        <v>5.402170500469169</v>
+        <v>8.616010717040645</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.071450571991235</v>
+        <v>12.15252719419549</v>
       </c>
       <c r="M13">
-        <v>14.8180499414567</v>
+        <v>17.17758248096931</v>
       </c>
       <c r="N13">
-        <v>12.0424448638475</v>
+        <v>18.64457410912157</v>
       </c>
       <c r="O13">
-        <v>17.13220496063087</v>
+        <v>25.35405996132345</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.81312040098475</v>
+        <v>17.80921832047658</v>
       </c>
       <c r="C14">
-        <v>13.02508617771766</v>
+        <v>9.53521747808232</v>
       </c>
       <c r="D14">
-        <v>9.336648314204744</v>
+        <v>13.52883925128524</v>
       </c>
       <c r="E14">
-        <v>7.867210464016575</v>
+        <v>13.97936939481802</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>29.31010689938725</v>
+        <v>36.09009852952338</v>
       </c>
       <c r="H14">
-        <v>9.74489970134006</v>
+        <v>15.99437351900263</v>
       </c>
       <c r="I14">
-        <v>14.60323436789656</v>
+        <v>24.6987838833012</v>
       </c>
       <c r="J14">
-        <v>5.400979155449427</v>
+        <v>8.616053368003399</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.044606256303755</v>
+        <v>12.15142706041671</v>
       </c>
       <c r="M14">
-        <v>14.71930533467711</v>
+        <v>17.15804651310994</v>
       </c>
       <c r="N14">
-        <v>12.0687508434889</v>
+        <v>18.65294799564304</v>
       </c>
       <c r="O14">
-        <v>17.0884100585138</v>
+        <v>25.36090930407414</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.68230744110464</v>
+        <v>17.76229518244089</v>
       </c>
       <c r="C15">
-        <v>12.97044725412469</v>
+        <v>9.510959085693246</v>
       </c>
       <c r="D15">
-        <v>9.31725744752876</v>
+        <v>13.52901937535318</v>
       </c>
       <c r="E15">
-        <v>7.874685955137147</v>
+        <v>13.98317342667641</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>29.21786409570821</v>
+        <v>36.08710365702617</v>
       </c>
       <c r="H15">
-        <v>9.74058443477513</v>
+        <v>15.99820698960123</v>
       </c>
       <c r="I15">
-        <v>14.61023592478668</v>
+        <v>24.70815692150669</v>
       </c>
       <c r="J15">
-        <v>5.400254772352598</v>
+        <v>8.61608159377983</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.028186096625793</v>
+        <v>12.15078063470142</v>
       </c>
       <c r="M15">
-        <v>14.65857635474057</v>
+        <v>17.14610645029935</v>
       </c>
       <c r="N15">
-        <v>12.08493238610605</v>
+        <v>18.65811060181847</v>
       </c>
       <c r="O15">
-        <v>17.0618843041843</v>
+        <v>25.36520773221612</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.91934971446966</v>
+        <v>17.49141065591919</v>
       </c>
       <c r="C16">
-        <v>12.65292581967854</v>
+        <v>9.370412774817726</v>
       </c>
       <c r="D16">
-        <v>9.207220364652292</v>
+        <v>13.53073016910087</v>
       </c>
       <c r="E16">
-        <v>7.91847729818295</v>
+        <v>14.00539561136362</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>28.69457520629096</v>
+        <v>36.07301409670791</v>
       </c>
       <c r="H16">
-        <v>9.718237333648604</v>
+        <v>16.02093890081761</v>
       </c>
       <c r="I16">
-        <v>14.65512664292754</v>
+        <v>24.76321597941609</v>
       </c>
       <c r="J16">
-        <v>5.396184630232322</v>
+        <v>8.616275620731056</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.934453642687042</v>
+        <v>12.14749787978503</v>
       </c>
       <c r="M16">
-        <v>14.30686244178817</v>
+        <v>17.07809796310199</v>
       </c>
       <c r="N16">
-        <v>12.1787024564712</v>
+        <v>18.68820727541525</v>
       </c>
       <c r="O16">
-        <v>16.91443657610912</v>
+        <v>25.39141825431101</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.43935925586483</v>
+        <v>17.32353916093694</v>
       </c>
       <c r="C17">
-        <v>12.45422909174455</v>
+        <v>9.282852952366193</v>
       </c>
       <c r="D17">
-        <v>9.140699543179689</v>
+        <v>13.53238601866828</v>
       </c>
       <c r="E17">
-        <v>7.946180346201971</v>
+        <v>14.01940595662133</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>28.37838442250879</v>
+        <v>36.06711455435344</v>
       </c>
       <c r="H17">
-        <v>9.706611764738776</v>
+        <v>16.03556563844559</v>
       </c>
       <c r="I17">
-        <v>14.68679616707082</v>
+        <v>24.79819324074462</v>
       </c>
       <c r="J17">
-        <v>5.393758961029453</v>
+        <v>8.616423533918272</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.87729513543956</v>
+        <v>12.14586143186378</v>
       </c>
       <c r="M17">
-        <v>14.08785979127571</v>
+        <v>17.03676079499164</v>
       </c>
       <c r="N17">
-        <v>12.23714763762272</v>
+        <v>18.70712797418892</v>
       </c>
       <c r="O17">
-        <v>16.82801125549147</v>
+        <v>25.40890460439933</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.15887227538813</v>
+        <v>17.22639471808638</v>
       </c>
       <c r="C18">
-        <v>12.33851924680102</v>
+        <v>9.232009841094241</v>
       </c>
       <c r="D18">
-        <v>9.102806253574252</v>
+        <v>13.53356155435019</v>
       </c>
       <c r="E18">
-        <v>7.962418207749071</v>
+        <v>14.02760334685565</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>28.19832924995411</v>
+        <v>36.06473028912972</v>
       </c>
       <c r="H18">
-        <v>9.700674182495385</v>
+        <v>16.0442289202168</v>
       </c>
       <c r="I18">
-        <v>14.70648125486801</v>
+        <v>24.81875206524418</v>
       </c>
       <c r="J18">
-        <v>5.392389554730933</v>
+        <v>8.616519257358094</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.844552415695012</v>
+        <v>12.14505934271794</v>
       </c>
       <c r="M18">
-        <v>13.96073299163365</v>
+        <v>17.01313106723576</v>
       </c>
       <c r="N18">
-        <v>12.27109903154773</v>
+        <v>18.71817898674435</v>
       </c>
       <c r="O18">
-        <v>16.77976566159494</v>
+        <v>25.41947894751161</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.06314494870711</v>
+        <v>17.19340528617978</v>
       </c>
       <c r="C19">
-        <v>12.29909836282286</v>
+        <v>9.214713713423182</v>
       </c>
       <c r="D19">
-        <v>9.090039994984753</v>
+        <v>13.53399792175469</v>
       </c>
       <c r="E19">
-        <v>7.967967848411034</v>
+        <v>14.0304027352621</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>28.1376797293881</v>
+        <v>36.06409635390036</v>
       </c>
       <c r="H19">
-        <v>9.698790907722996</v>
+        <v>16.04720515371628</v>
       </c>
       <c r="I19">
-        <v>14.71339417793845</v>
+        <v>24.82578861625635</v>
       </c>
       <c r="J19">
-        <v>5.391930287108119</v>
+        <v>8.616553499543876</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.83348988648773</v>
+        <v>12.14481171067884</v>
       </c>
       <c r="M19">
-        <v>13.91749321505111</v>
+        <v>17.00515607291207</v>
       </c>
       <c r="N19">
-        <v>12.28265171387577</v>
+        <v>18.72194960370809</v>
       </c>
       <c r="O19">
-        <v>16.76368031957525</v>
+        <v>25.42314793171476</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.49091092019343</v>
+        <v>17.34147110375059</v>
       </c>
       <c r="C20">
-        <v>12.47552842686435</v>
+        <v>9.292223885637311</v>
       </c>
       <c r="D20">
-        <v>9.147742882746558</v>
+        <v>13.53218666371908</v>
       </c>
       <c r="E20">
-        <v>7.943199771699783</v>
+        <v>14.0179001486426</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>28.41185698782572</v>
+        <v>36.06763815405552</v>
       </c>
       <c r="H20">
-        <v>9.70777141887017</v>
+        <v>16.0339826835717</v>
       </c>
       <c r="I20">
-        <v>14.68327171443594</v>
+        <v>24.79442422109963</v>
       </c>
       <c r="J20">
-        <v>5.394014501233936</v>
+        <v>8.616406687054452</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.883366119489725</v>
+        <v>12.14602124283568</v>
       </c>
       <c r="M20">
-        <v>14.11129393991661</v>
+        <v>17.04114618170108</v>
       </c>
       <c r="N20">
-        <v>12.23089128618778</v>
+        <v>18.70509641789061</v>
       </c>
       <c r="O20">
-        <v>16.83705947558476</v>
+        <v>25.40698967043332</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.87561388173878</v>
+        <v>17.83168298946433</v>
       </c>
       <c r="C21">
-        <v>13.05120872844122</v>
+        <v>9.546822578307228</v>
       </c>
       <c r="D21">
-        <v>9.345965715630804</v>
+        <v>13.52876486817681</v>
       </c>
       <c r="E21">
-        <v>7.863642772319763</v>
+        <v>13.97755273090808</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>29.35443271430482</v>
+        <v>36.09158897485079</v>
       </c>
       <c r="H21">
-        <v>9.747011711020351</v>
+        <v>15.99254877935623</v>
       </c>
       <c r="I21">
-        <v>14.59996302870586</v>
+        <v>24.69431307604043</v>
       </c>
       <c r="J21">
-        <v>5.401327964960164</v>
+        <v>8.616040402753429</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.052486377460376</v>
+        <v>12.1517444809886</v>
       </c>
       <c r="M21">
-        <v>14.74836021585047</v>
+        <v>17.16377925305752</v>
       </c>
       <c r="N21">
-        <v>12.06100987201927</v>
+        <v>18.65048143156458</v>
       </c>
       <c r="O21">
-        <v>17.10121110272391</v>
+        <v>25.35887601733696</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.74178502912775</v>
+        <v>18.14613936551016</v>
       </c>
       <c r="C22">
-        <v>13.41454426873091</v>
+        <v>9.708704740413882</v>
       </c>
       <c r="D22">
-        <v>9.478656099731488</v>
+        <v>13.52850857452359</v>
       </c>
       <c r="E22">
-        <v>7.814448013101679</v>
+        <v>13.95241728682732</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>29.9858561346714</v>
+        <v>36.11621070300588</v>
       </c>
       <c r="H22">
-        <v>9.779680574693003</v>
+        <v>15.96770004707678</v>
       </c>
       <c r="I22">
-        <v>14.55964356153918</v>
+        <v>24.63281622431097</v>
       </c>
       <c r="J22">
-        <v>5.40634609204263</v>
+        <v>8.615895131569912</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.164054009410336</v>
+        <v>12.15671424465311</v>
       </c>
       <c r="M22">
-        <v>15.15382235495732</v>
+        <v>17.24511757762024</v>
       </c>
       <c r="N22">
-        <v>11.95303447317755</v>
+        <v>18.61628110708762</v>
       </c>
       <c r="O22">
-        <v>17.28722801354281</v>
+        <v>25.33204025117863</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.28302235155538</v>
+        <v>17.97888157258616</v>
       </c>
       <c r="C23">
-        <v>13.22181480018016</v>
+        <v>9.622728621276947</v>
       </c>
       <c r="D23">
-        <v>9.407555836217494</v>
+        <v>13.52846455501846</v>
       </c>
       <c r="E23">
-        <v>7.840443107052515</v>
+        <v>13.96571983130753</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>29.64747821691083</v>
+        <v>36.10225010654759</v>
       </c>
       <c r="H23">
-        <v>9.761584979256108</v>
+        <v>15.98075811897687</v>
       </c>
       <c r="I23">
-        <v>14.579818637327</v>
+        <v>24.66527821633643</v>
       </c>
       <c r="J23">
-        <v>5.403645561942856</v>
+        <v>8.615964087702672</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.104420308133257</v>
+        <v>12.15394980086903</v>
       </c>
       <c r="M23">
-        <v>14.93844023309203</v>
+        <v>17.20160234515274</v>
       </c>
       <c r="N23">
-        <v>12.01038015819755</v>
+        <v>18.63439803618809</v>
       </c>
       <c r="O23">
-        <v>17.1867076068266</v>
+        <v>25.34594088772786</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.46761854032856</v>
+        <v>17.33336603593182</v>
       </c>
       <c r="C24">
-        <v>12.46590359361034</v>
+        <v>9.287988853344677</v>
       </c>
       <c r="D24">
-        <v>9.144557495958811</v>
+        <v>13.53227609564444</v>
       </c>
       <c r="E24">
-        <v>7.94454632172682</v>
+        <v>14.01858048002939</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>28.39671865331472</v>
+        <v>36.06739829631757</v>
       </c>
       <c r="H24">
-        <v>9.707244819177298</v>
+        <v>16.03469754573573</v>
       </c>
       <c r="I24">
-        <v>14.68486052767685</v>
+        <v>24.79612679343159</v>
       </c>
       <c r="J24">
-        <v>5.393898893286699</v>
+        <v>8.616414270228304</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.880621056907498</v>
+        <v>12.14594856007086</v>
       </c>
       <c r="M24">
-        <v>14.10070315255438</v>
+        <v>17.03916312485886</v>
       </c>
       <c r="N24">
-        <v>12.23371869169234</v>
+        <v>18.70601434476347</v>
       </c>
       <c r="O24">
-        <v>16.83296428934351</v>
+        <v>25.40785378864442</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.34058380833832</v>
+        <v>16.61502370944143</v>
       </c>
       <c r="C25">
-        <v>11.5962845637879</v>
+        <v>8.908692826075031</v>
       </c>
       <c r="D25">
-        <v>8.875006788008145</v>
+        <v>13.54492083496705</v>
       </c>
       <c r="E25">
-        <v>8.068408165426915</v>
+        <v>14.08091642091217</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>27.11719410441537</v>
+        <v>36.06837501807894</v>
       </c>
       <c r="H25">
-        <v>9.677059603956497</v>
+        <v>16.10245112444327</v>
       </c>
       <c r="I25">
-        <v>14.8537910938208</v>
+        <v>24.95411876424632</v>
       </c>
       <c r="J25">
-        <v>5.384366675029147</v>
+        <v>8.617307356894969</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.64441211239472</v>
+        <v>12.14264285792335</v>
       </c>
       <c r="M25">
-        <v>13.15311448099571</v>
+        <v>16.86960292942553</v>
       </c>
       <c r="N25">
-        <v>12.48742021381552</v>
+        <v>18.78970304886875</v>
       </c>
       <c r="O25">
-        <v>16.50710285059063</v>
+        <v>25.49438234559911</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_178/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_178/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.0711673480879</v>
+        <v>18.6266391371259</v>
       </c>
       <c r="C2">
-        <v>8.61511508945847</v>
+        <v>10.91101766051714</v>
       </c>
       <c r="D2">
-        <v>13.56159526462787</v>
+        <v>8.689338025958371</v>
       </c>
       <c r="E2">
-        <v>14.13141669706078</v>
+        <v>8.169124561160253</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.10223932728334</v>
+        <v>26.2386060765426</v>
       </c>
       <c r="H2">
-        <v>16.16056733970392</v>
+        <v>9.677350689145392</v>
       </c>
       <c r="I2">
-        <v>25.08492602862891</v>
+        <v>15.02075148090024</v>
       </c>
       <c r="J2">
-        <v>8.618319071558375</v>
+        <v>5.378148000715164</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.14483238649772</v>
+        <v>7.475769983173127</v>
       </c>
       <c r="M2">
-        <v>16.75017320725858</v>
+        <v>12.42144552581344</v>
       </c>
       <c r="N2">
-        <v>18.85690058318922</v>
+        <v>12.68499337954845</v>
       </c>
       <c r="O2">
-        <v>25.57501843936498</v>
+        <v>16.31277991775112</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.69554943976792</v>
+        <v>17.38281614383776</v>
       </c>
       <c r="C3">
-        <v>8.408031093794085</v>
+        <v>10.419799364379</v>
       </c>
       <c r="D3">
-        <v>13.5774981841238</v>
+        <v>8.571785561668047</v>
       </c>
       <c r="E3">
-        <v>14.16852733367672</v>
+        <v>8.243127181997631</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>36.1458093438882</v>
+        <v>25.68447411788065</v>
       </c>
       <c r="H3">
-        <v>16.20508514765344</v>
+        <v>9.690615126396377</v>
       </c>
       <c r="I3">
-        <v>25.1826004031837</v>
+        <v>15.15798853369861</v>
       </c>
       <c r="J3">
-        <v>8.619227528606347</v>
+        <v>5.374412992857771</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.14922044457661</v>
+        <v>7.365194127621319</v>
       </c>
       <c r="M3">
-        <v>16.67288204849944</v>
+        <v>11.90695290434362</v>
       </c>
       <c r="N3">
-        <v>18.90594102950857</v>
+        <v>12.82553140114449</v>
       </c>
       <c r="O3">
-        <v>25.64019010945213</v>
+        <v>16.20817190089079</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.46227949579755</v>
+        <v>16.61213005039871</v>
       </c>
       <c r="C4">
-        <v>8.277174150467411</v>
+        <v>10.10552565438996</v>
       </c>
       <c r="D4">
-        <v>13.58953482735986</v>
+        <v>8.50377215357128</v>
       </c>
       <c r="E4">
-        <v>14.19274197816834</v>
+        <v>8.291342634153814</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>36.18270240426539</v>
+        <v>25.36504918371848</v>
       </c>
       <c r="H4">
-        <v>16.23494989178043</v>
+        <v>9.704880023200271</v>
       </c>
       <c r="I4">
-        <v>25.24702233676351</v>
+        <v>15.25336310447637</v>
       </c>
       <c r="J4">
-        <v>8.619895881063302</v>
+        <v>5.372350385228105</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.15335348796407</v>
+        <v>7.299273253249962</v>
       </c>
       <c r="M4">
-        <v>16.62731078251428</v>
+        <v>11.58292184403327</v>
       </c>
       <c r="N4">
-        <v>18.93778529807597</v>
+        <v>12.91507947499348</v>
       </c>
       <c r="O4">
-        <v>25.68538390738985</v>
+        <v>16.15678850451127</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.3666896081625</v>
+        <v>16.28802714145846</v>
       </c>
       <c r="C5">
-        <v>8.22296596002367</v>
+        <v>9.974374583943606</v>
       </c>
       <c r="D5">
-        <v>13.59501148646372</v>
+        <v>8.477113747212666</v>
       </c>
       <c r="E5">
-        <v>14.2029695594283</v>
+        <v>8.311681323406177</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>36.200281388143</v>
+        <v>25.24016621812017</v>
       </c>
       <c r="H5">
-        <v>16.24775623644609</v>
+        <v>9.712184115215274</v>
       </c>
       <c r="I5">
-        <v>25.27439324910999</v>
+        <v>15.29491360023766</v>
       </c>
       <c r="J5">
-        <v>8.620196143789517</v>
+        <v>5.371567095261509</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.15540047605049</v>
+        <v>7.272927215133087</v>
       </c>
       <c r="M5">
-        <v>16.6092272638776</v>
+        <v>11.44901649952575</v>
       </c>
       <c r="N5">
-        <v>18.951198880816</v>
+        <v>12.9523877715589</v>
       </c>
       <c r="O5">
-        <v>25.70510084451449</v>
+        <v>16.13899751137588</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.35078893978659</v>
+        <v>16.23360633435716</v>
       </c>
       <c r="C6">
-        <v>8.213912902161333</v>
+        <v>9.9524142439475</v>
       </c>
       <c r="D6">
-        <v>13.59595541193497</v>
+        <v>8.472751267202334</v>
       </c>
       <c r="E6">
-        <v>14.20468960006714</v>
+        <v>8.315100031226066</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>36.20335388419868</v>
+        <v>25.21974979456674</v>
       </c>
       <c r="H6">
-        <v>16.24992114220424</v>
+        <v>9.713485609568576</v>
       </c>
       <c r="I6">
-        <v>25.27900570857112</v>
+        <v>15.30197207807092</v>
       </c>
       <c r="J6">
-        <v>8.620247690534745</v>
+        <v>5.371440465983401</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.15576231177286</v>
+        <v>7.26858431449781</v>
       </c>
       <c r="M6">
-        <v>16.60625429877741</v>
+        <v>11.4266751159714</v>
       </c>
       <c r="N6">
-        <v>18.95345260484356</v>
+        <v>12.9586320607267</v>
       </c>
       <c r="O6">
-        <v>25.70845328830526</v>
+        <v>16.1362309511228</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.46099230506832</v>
+        <v>16.6077996258981</v>
       </c>
       <c r="C7">
-        <v>8.276446587563404</v>
+        <v>10.10376923583943</v>
       </c>
       <c r="D7">
-        <v>13.58960637272508</v>
+        <v>8.503408334958801</v>
       </c>
       <c r="E7">
-        <v>14.19287845268765</v>
+        <v>8.291614143044026</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>36.18292918483655</v>
+        <v>25.36334351619412</v>
       </c>
       <c r="H7">
-        <v>16.23512002678503</v>
+        <v>9.704972554855832</v>
       </c>
       <c r="I7">
-        <v>25.24738694241788</v>
+        <v>15.2539127396579</v>
       </c>
       <c r="J7">
-        <v>8.619899817393238</v>
+        <v>5.372339590730968</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.15337962443982</v>
+        <v>7.298915819825289</v>
       </c>
       <c r="M7">
-        <v>16.62706491276293</v>
+        <v>11.58112322047505</v>
       </c>
       <c r="N7">
-        <v>18.93796442855416</v>
+        <v>12.9155793233047</v>
       </c>
       <c r="O7">
-        <v>25.68564455561105</v>
+        <v>16.15653593518292</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.94228008341629</v>
+        <v>18.20352064784099</v>
       </c>
       <c r="C8">
-        <v>8.544510294960029</v>
+        <v>10.74433005255535</v>
       </c>
       <c r="D8">
-        <v>13.56660719585564</v>
+        <v>8.647948723676057</v>
       </c>
       <c r="E8">
-        <v>14.14391636339271</v>
+        <v>8.194059229752918</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>36.11515474553445</v>
+        <v>26.0432583461717</v>
       </c>
       <c r="H8">
-        <v>16.17539177627642</v>
+        <v>9.680625013044878</v>
       </c>
       <c r="I8">
-        <v>25.117680420891</v>
+        <v>15.06569749159767</v>
       </c>
       <c r="J8">
-        <v>8.61860942336447</v>
+        <v>5.376811805830008</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.14604736589889</v>
+        <v>7.437246795009456</v>
       </c>
       <c r="M8">
-        <v>16.72313973563197</v>
+        <v>12.24583955369376</v>
       </c>
       <c r="N8">
-        <v>18.87345056533739</v>
+        <v>12.73277326058181</v>
       </c>
       <c r="O8">
-        <v>25.59641376529624</v>
+        <v>16.27399730548117</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.85960512591909</v>
+        <v>21.07986853753284</v>
       </c>
       <c r="C9">
-        <v>9.038779619310173</v>
+        <v>11.89633784344767</v>
       </c>
       <c r="D9">
-        <v>13.53951894076091</v>
+        <v>8.963859050470001</v>
       </c>
       <c r="E9">
-        <v>14.05920547048267</v>
+        <v>8.02517942164711</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>36.06289292143094</v>
+        <v>27.53857833597622</v>
       </c>
       <c r="H9">
-        <v>16.07834966017473</v>
+        <v>9.683599973775799</v>
       </c>
       <c r="I9">
-        <v>24.89864890584472</v>
+        <v>14.7899307492214</v>
       </c>
       <c r="J9">
-        <v>8.616951756811378</v>
+        <v>5.387450604345339</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.14304100011405</v>
+        <v>7.723215388479885</v>
       </c>
       <c r="M9">
-        <v>16.92591466555052</v>
+        <v>13.47787977965999</v>
       </c>
       <c r="N9">
-        <v>18.760648595303</v>
+        <v>12.40027376463473</v>
       </c>
       <c r="O9">
-        <v>25.46260171937324</v>
+        <v>16.60961915692191</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.51048371539804</v>
+        <v>22.97352402751355</v>
       </c>
       <c r="C10">
-        <v>9.380337961984038</v>
+        <v>12.6754045875136</v>
       </c>
       <c r="D10">
-        <v>13.53057143878374</v>
+        <v>9.214860221883391</v>
       </c>
       <c r="E10">
-        <v>14.00381575625788</v>
+        <v>7.915357663401582</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>36.07382395965622</v>
+        <v>28.73089744737983</v>
       </c>
       <c r="H10">
-        <v>16.01930381855903</v>
+        <v>9.719666605666278</v>
       </c>
       <c r="I10">
-        <v>24.75928458459926</v>
+        <v>14.65171554678479</v>
       </c>
       <c r="J10">
-        <v>8.616260183216713</v>
+        <v>5.396464937245141</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.14770343296701</v>
+        <v>7.940993370720461</v>
       </c>
       <c r="M10">
-        <v>17.0828342683387</v>
+        <v>14.33169262317</v>
       </c>
       <c r="N10">
-        <v>18.68607108290903</v>
+        <v>12.17207909088139</v>
       </c>
       <c r="O10">
-        <v>25.38949298055759</v>
+        <v>16.92449791026041</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.80025308898944</v>
+        <v>23.78815636007648</v>
       </c>
       <c r="C11">
-        <v>9.530584530576224</v>
+        <v>13.01465466595516</v>
       </c>
       <c r="D11">
-        <v>13.52887107297606</v>
+        <v>9.332936036028435</v>
       </c>
       <c r="E11">
-        <v>13.98009520722745</v>
+        <v>7.868636288961181</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>36.08951393350959</v>
+        <v>29.29244690880094</v>
       </c>
       <c r="H11">
-        <v>15.99510363960971</v>
+        <v>9.744065155851258</v>
       </c>
       <c r="I11">
-        <v>24.70057108443902</v>
+        <v>14.60455448009297</v>
       </c>
       <c r="J11">
-        <v>8.616058640964225</v>
+        <v>5.400840314736469</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.15130181565875</v>
+        <v>8.041464856134144</v>
       </c>
       <c r="M11">
-        <v>17.15576163848213</v>
+        <v>14.70770658599592</v>
       </c>
       <c r="N11">
-        <v>18.65393326485425</v>
+        <v>12.07184120105589</v>
       </c>
       <c r="O11">
-        <v>25.36172518599571</v>
+        <v>17.08331976399119</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.90897296383899</v>
+        <v>24.08997575211956</v>
       </c>
       <c r="C12">
-        <v>9.586707774367836</v>
+        <v>13.14090890482328</v>
       </c>
       <c r="D12">
-        <v>13.52856698138714</v>
+        <v>9.378189067746467</v>
       </c>
       <c r="E12">
-        <v>13.97132449112875</v>
+        <v>7.851423111928227</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>36.0969944002354</v>
+        <v>29.50774243067411</v>
       </c>
       <c r="H12">
-        <v>15.98632225460425</v>
+        <v>9.754505173733893</v>
       </c>
       <c r="I12">
-        <v>24.67901199504718</v>
+        <v>14.58910663164535</v>
       </c>
       <c r="J12">
-        <v>8.615998476394537</v>
+        <v>5.402537952149594</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.15287547078652</v>
+        <v>8.079690880388053</v>
       </c>
       <c r="M12">
-        <v>17.18358323980259</v>
+        <v>14.8482300953369</v>
       </c>
       <c r="N12">
-        <v>18.64201969741148</v>
+        <v>12.03440591830895</v>
       </c>
       <c r="O12">
-        <v>25.35200083297552</v>
+        <v>17.1457539706844</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.88560461457591</v>
+        <v>24.02526887274265</v>
       </c>
       <c r="C13">
-        <v>9.574655470899106</v>
+        <v>13.11381662994476</v>
       </c>
       <c r="D13">
-        <v>13.52861737762753</v>
+        <v>9.36841929970586</v>
       </c>
       <c r="E13">
-        <v>13.97320401366749</v>
+        <v>7.855108734309169</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>36.09531495004065</v>
+        <v>29.46125850159361</v>
       </c>
       <c r="H13">
-        <v>15.98819645979053</v>
+        <v>9.752202502815638</v>
       </c>
       <c r="I13">
-        <v>24.68362512059351</v>
+        <v>14.59232389875351</v>
       </c>
       <c r="J13">
-        <v>8.616010717040645</v>
+        <v>5.402170500469167</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.15252719419549</v>
+        <v>8.071450571991216</v>
       </c>
       <c r="M13">
-        <v>17.17758248096931</v>
+        <v>14.81804994145671</v>
       </c>
       <c r="N13">
-        <v>18.64457410912157</v>
+        <v>12.04244486384752</v>
       </c>
       <c r="O13">
-        <v>25.35405996132345</v>
+        <v>17.1322049606309</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.80921832047658</v>
+        <v>23.81312040098476</v>
       </c>
       <c r="C14">
-        <v>9.53521747808232</v>
+        <v>13.02508617771766</v>
       </c>
       <c r="D14">
-        <v>13.52883925128524</v>
+        <v>9.336648314204663</v>
       </c>
       <c r="E14">
-        <v>13.97936939481802</v>
+        <v>7.86721046401658</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>36.09009852952338</v>
+        <v>29.31010689938723</v>
       </c>
       <c r="H14">
-        <v>15.99437351900263</v>
+        <v>9.744899701340076</v>
       </c>
       <c r="I14">
-        <v>24.6987838833012</v>
+        <v>14.60323436789653</v>
       </c>
       <c r="J14">
-        <v>8.616053368003399</v>
+        <v>5.400979155449527</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.15142706041671</v>
+        <v>8.044606256303757</v>
       </c>
       <c r="M14">
-        <v>17.15804651310994</v>
+        <v>14.7193053346771</v>
       </c>
       <c r="N14">
-        <v>18.65294799564304</v>
+        <v>12.06875084348892</v>
       </c>
       <c r="O14">
-        <v>25.36090930407414</v>
+        <v>17.08841005851379</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.76229518244089</v>
+        <v>23.68230744110466</v>
       </c>
       <c r="C15">
-        <v>9.510959085693246</v>
+        <v>12.97044725412474</v>
       </c>
       <c r="D15">
-        <v>13.52901937535318</v>
+        <v>9.317257447528851</v>
       </c>
       <c r="E15">
-        <v>13.98317342667641</v>
+        <v>7.874685955137147</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>36.08710365702617</v>
+        <v>29.21786409570822</v>
       </c>
       <c r="H15">
-        <v>15.99820698960123</v>
+        <v>9.740584434775142</v>
       </c>
       <c r="I15">
-        <v>24.70815692150669</v>
+        <v>14.61023592478668</v>
       </c>
       <c r="J15">
-        <v>8.61608159377983</v>
+        <v>5.400254772352464</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.15078063470142</v>
+        <v>8.028186096625786</v>
       </c>
       <c r="M15">
-        <v>17.14610645029935</v>
+        <v>14.65857635474057</v>
       </c>
       <c r="N15">
-        <v>18.65811060181847</v>
+        <v>12.08493238610601</v>
       </c>
       <c r="O15">
-        <v>25.36520773221612</v>
+        <v>17.06188430418429</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.49141065591919</v>
+        <v>22.9193497144697</v>
       </c>
       <c r="C16">
-        <v>9.370412774817726</v>
+        <v>12.65292581967859</v>
       </c>
       <c r="D16">
-        <v>13.53073016910087</v>
+        <v>9.207220364652294</v>
       </c>
       <c r="E16">
-        <v>14.00539561136362</v>
+        <v>7.918477298182952</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>36.07301409670791</v>
+        <v>28.6945752062909</v>
       </c>
       <c r="H16">
-        <v>16.02093890081761</v>
+        <v>9.718237333648609</v>
       </c>
       <c r="I16">
-        <v>24.76321597941609</v>
+        <v>14.65512664292756</v>
       </c>
       <c r="J16">
-        <v>8.616275620731056</v>
+        <v>5.396184630232322</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.14749787978503</v>
+        <v>7.934453642687019</v>
       </c>
       <c r="M16">
-        <v>17.07809796310199</v>
+        <v>14.30686244178815</v>
       </c>
       <c r="N16">
-        <v>18.68820727541525</v>
+        <v>12.17870245647123</v>
       </c>
       <c r="O16">
-        <v>25.39141825431101</v>
+        <v>16.91443657610908</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.32353916093694</v>
+        <v>22.43935925586488</v>
       </c>
       <c r="C17">
-        <v>9.282852952366193</v>
+        <v>12.45422909174472</v>
       </c>
       <c r="D17">
-        <v>13.53238601866828</v>
+        <v>9.140699543179682</v>
       </c>
       <c r="E17">
-        <v>14.01940595662133</v>
+        <v>7.946180346201976</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>36.06711455435344</v>
+        <v>28.37838442250871</v>
       </c>
       <c r="H17">
-        <v>16.03556563844559</v>
+        <v>9.706611764738728</v>
       </c>
       <c r="I17">
-        <v>24.79819324074462</v>
+        <v>14.68679616707071</v>
       </c>
       <c r="J17">
-        <v>8.616423533918272</v>
+        <v>5.393758961029485</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.14586143186378</v>
+        <v>7.877295135439527</v>
       </c>
       <c r="M17">
-        <v>17.03676079499164</v>
+        <v>14.08785979127567</v>
       </c>
       <c r="N17">
-        <v>18.70712797418892</v>
+        <v>12.23714763762272</v>
       </c>
       <c r="O17">
-        <v>25.40890460439933</v>
+        <v>16.82801125549137</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.22639471808638</v>
+        <v>22.15887227538812</v>
       </c>
       <c r="C18">
-        <v>9.232009841094241</v>
+        <v>12.33851924680117</v>
       </c>
       <c r="D18">
-        <v>13.53356155435019</v>
+        <v>9.102806253574322</v>
       </c>
       <c r="E18">
-        <v>14.02760334685565</v>
+        <v>7.962418207749064</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>36.06473028912972</v>
+        <v>28.19832924995416</v>
       </c>
       <c r="H18">
-        <v>16.0442289202168</v>
+        <v>9.700674182495334</v>
       </c>
       <c r="I18">
-        <v>24.81875206524418</v>
+        <v>14.70648125486802</v>
       </c>
       <c r="J18">
-        <v>8.616519257358094</v>
+        <v>5.392389554730901</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.14505934271794</v>
+        <v>7.844552415694961</v>
       </c>
       <c r="M18">
-        <v>17.01313106723576</v>
+        <v>13.96073299163364</v>
       </c>
       <c r="N18">
-        <v>18.71817898674435</v>
+        <v>12.27109903154766</v>
       </c>
       <c r="O18">
-        <v>25.41947894751161</v>
+        <v>16.7797656615949</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.19340528617978</v>
+        <v>22.06314494870716</v>
       </c>
       <c r="C19">
-        <v>9.214713713423182</v>
+        <v>12.29909836282302</v>
       </c>
       <c r="D19">
-        <v>13.53399792175469</v>
+        <v>9.090039994984799</v>
       </c>
       <c r="E19">
-        <v>14.0304027352621</v>
+        <v>7.967967848411039</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>36.06409635390036</v>
+        <v>28.1376797293882</v>
       </c>
       <c r="H19">
-        <v>16.04720515371628</v>
+        <v>9.698790907723023</v>
       </c>
       <c r="I19">
-        <v>24.82578861625635</v>
+        <v>14.71339417793854</v>
       </c>
       <c r="J19">
-        <v>8.616553499543876</v>
+        <v>5.391930287108117</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.14481171067884</v>
+        <v>7.83348988648773</v>
       </c>
       <c r="M19">
-        <v>17.00515607291207</v>
+        <v>13.91749321505114</v>
       </c>
       <c r="N19">
-        <v>18.72194960370809</v>
+        <v>12.28265171387579</v>
       </c>
       <c r="O19">
-        <v>25.42314793171476</v>
+        <v>16.76368031957536</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.34147110375059</v>
+        <v>22.49091092019343</v>
       </c>
       <c r="C20">
-        <v>9.292223885637311</v>
+        <v>12.47552842686442</v>
       </c>
       <c r="D20">
-        <v>13.53218666371908</v>
+        <v>9.147742882746554</v>
       </c>
       <c r="E20">
-        <v>14.0179001486426</v>
+        <v>7.94319977169984</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>36.06763815405552</v>
+        <v>28.41185698782568</v>
       </c>
       <c r="H20">
-        <v>16.0339826835717</v>
+        <v>9.707771418870163</v>
       </c>
       <c r="I20">
-        <v>24.79442422109963</v>
+        <v>14.68327171443594</v>
       </c>
       <c r="J20">
-        <v>8.616406687054452</v>
+        <v>5.394014501234004</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.14602124283568</v>
+        <v>7.883366119489723</v>
       </c>
       <c r="M20">
-        <v>17.04114618170108</v>
+        <v>14.1112939399166</v>
       </c>
       <c r="N20">
-        <v>18.70509641789061</v>
+        <v>12.23089128618778</v>
       </c>
       <c r="O20">
-        <v>25.40698967043332</v>
+        <v>16.83705947558472</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.83168298946433</v>
+        <v>23.87561388173878</v>
       </c>
       <c r="C21">
-        <v>9.546822578307228</v>
+        <v>13.0512087284413</v>
       </c>
       <c r="D21">
-        <v>13.52876486817681</v>
+        <v>9.345965715630705</v>
       </c>
       <c r="E21">
-        <v>13.97755273090808</v>
+        <v>7.863642772319768</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>36.09158897485079</v>
+        <v>29.35443271430478</v>
       </c>
       <c r="H21">
-        <v>15.99254877935623</v>
+        <v>9.747011711020358</v>
       </c>
       <c r="I21">
-        <v>24.69431307604043</v>
+        <v>14.59996302870587</v>
       </c>
       <c r="J21">
-        <v>8.616040402753429</v>
+        <v>5.401327964960195</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.1517444809886</v>
+        <v>8.052486377460331</v>
       </c>
       <c r="M21">
-        <v>17.16377925305752</v>
+        <v>14.74836021585046</v>
       </c>
       <c r="N21">
-        <v>18.65048143156458</v>
+        <v>12.06100987201926</v>
       </c>
       <c r="O21">
-        <v>25.35887601733696</v>
+        <v>17.10121110272387</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.14613936551016</v>
+        <v>24.74178502912775</v>
       </c>
       <c r="C22">
-        <v>9.708704740413882</v>
+        <v>13.41454426873091</v>
       </c>
       <c r="D22">
-        <v>13.52850857452359</v>
+        <v>9.478656099731428</v>
       </c>
       <c r="E22">
-        <v>13.95241728682732</v>
+        <v>7.814448013101624</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>36.11621070300588</v>
+        <v>29.98585613467153</v>
       </c>
       <c r="H22">
-        <v>15.96770004707678</v>
+        <v>9.779680574693003</v>
       </c>
       <c r="I22">
-        <v>24.63281622431097</v>
+        <v>14.55964356153928</v>
       </c>
       <c r="J22">
-        <v>8.615895131569912</v>
+        <v>5.406346092042662</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.15671424465311</v>
+        <v>8.164054009410298</v>
       </c>
       <c r="M22">
-        <v>17.24511757762024</v>
+        <v>15.15382235495732</v>
       </c>
       <c r="N22">
-        <v>18.61628110708762</v>
+        <v>11.95303447317758</v>
       </c>
       <c r="O22">
-        <v>25.33204025117863</v>
+        <v>17.28722801354287</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.97888157258616</v>
+        <v>24.28302235155545</v>
       </c>
       <c r="C23">
-        <v>9.622728621276947</v>
+        <v>13.22181480018005</v>
       </c>
       <c r="D23">
-        <v>13.52846455501846</v>
+        <v>9.407555836217446</v>
       </c>
       <c r="E23">
-        <v>13.96571983130753</v>
+        <v>7.840443107052277</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>36.10225010654759</v>
+        <v>29.64747821691063</v>
       </c>
       <c r="H23">
-        <v>15.98075811897687</v>
+        <v>9.761584979256064</v>
       </c>
       <c r="I23">
-        <v>24.66527821633643</v>
+        <v>14.57981863732684</v>
       </c>
       <c r="J23">
-        <v>8.615964087702672</v>
+        <v>5.403645561942725</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.15394980086903</v>
+        <v>8.104420308133198</v>
       </c>
       <c r="M23">
-        <v>17.20160234515274</v>
+        <v>14.93844023309198</v>
       </c>
       <c r="N23">
-        <v>18.63439803618809</v>
+        <v>12.01038015819745</v>
       </c>
       <c r="O23">
-        <v>25.34594088772786</v>
+        <v>17.18670760682651</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.33336603593182</v>
+        <v>22.4676185403286</v>
       </c>
       <c r="C24">
-        <v>9.287988853344677</v>
+        <v>12.46590359361048</v>
       </c>
       <c r="D24">
-        <v>13.53227609564444</v>
+        <v>9.144557495958832</v>
       </c>
       <c r="E24">
-        <v>14.01858048002939</v>
+        <v>7.944546321726886</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>36.06739829631757</v>
+        <v>28.39671865331468</v>
       </c>
       <c r="H24">
-        <v>16.03469754573573</v>
+        <v>9.707244819177314</v>
       </c>
       <c r="I24">
-        <v>24.79612679343159</v>
+        <v>14.68486052767687</v>
       </c>
       <c r="J24">
-        <v>8.616414270228304</v>
+        <v>5.39389889328673</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.14594856007086</v>
+        <v>7.880621056907504</v>
       </c>
       <c r="M24">
-        <v>17.03916312485886</v>
+        <v>14.10070315255438</v>
       </c>
       <c r="N24">
-        <v>18.70601434476347</v>
+        <v>12.23371869169233</v>
       </c>
       <c r="O24">
-        <v>25.40785378864442</v>
+        <v>16.8329642893435</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.61502370944143</v>
+        <v>20.34058380833836</v>
       </c>
       <c r="C25">
-        <v>8.908692826075031</v>
+        <v>11.59628456378756</v>
       </c>
       <c r="D25">
-        <v>13.54492083496705</v>
+        <v>8.875006788008134</v>
       </c>
       <c r="E25">
-        <v>14.08091642091217</v>
+        <v>8.068408165426794</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>36.06837501807894</v>
+        <v>27.11719410441547</v>
       </c>
       <c r="H25">
-        <v>16.10245112444327</v>
+        <v>9.677059603956542</v>
       </c>
       <c r="I25">
-        <v>24.95411876424632</v>
+        <v>14.85379109382076</v>
       </c>
       <c r="J25">
-        <v>8.617307356894969</v>
+        <v>5.384366675029047</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.14264285792335</v>
+        <v>7.644412112394732</v>
       </c>
       <c r="M25">
-        <v>16.86960292942553</v>
+        <v>13.15311448099571</v>
       </c>
       <c r="N25">
-        <v>18.78970304886875</v>
+        <v>12.48742021381555</v>
       </c>
       <c r="O25">
-        <v>25.49438234559911</v>
+        <v>16.5071028505907</v>
       </c>
     </row>
   </sheetData>
